--- a/CPP/DSA_CPP.xlsx
+++ b/CPP/DSA_CPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Desktop\DSA_CH\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC5242-E853-46EE-8DCB-2CBF5D42E232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD0ECF-1A80-42A9-A677-446286516020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Linked List </t>
   </si>
@@ -34,13 +34,40 @@
   </si>
   <si>
     <t>28-8</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 , 45 </t>
+  </si>
+  <si>
+    <t>Two Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Videos</t>
+  </si>
+  <si>
+    <t>29-8</t>
+  </si>
+  <si>
+    <t>Reverse A String</t>
+  </si>
+  <si>
+    <t>Delete Middle Element of Stack   ( Recursive )</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Element at Bottom            </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +98,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -111,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,6 +163,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -404,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:D19"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,28 +465,98 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="3" max="3" width="66.109375" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D5" s="4">
+    <row r="1" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="4">
         <v>2023</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" xr:uid="{0F6BDF20-4576-402B-B685-26F963F71410}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{462108ED-1056-4767-94B0-A282B45107A0}"/>
+    <hyperlink ref="C31" r:id="rId3" display="Delete Middle Element of Stack" xr:uid="{D553719E-0505-489C-AA28-1E415B04FDD6}"/>
+    <hyperlink ref="C32" r:id="rId4" display="Valid Paraenthesis" xr:uid="{58F1E567-CD48-4672-866F-70169D5511C8}"/>
+    <hyperlink ref="C33" r:id="rId5" display="Insert Element at Bottom" xr:uid="{9786DB22-F682-485B-8DB3-C7781716D303}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>